--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_30_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_30_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90512.67881230553</v>
+        <v>16072794.79619763</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90512.67881230553</v>
+        <v>16072794.79619763</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3108.838936863205</v>
+        <v>281664.4824084506</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3108.838936863205</v>
+        <v>281664.4824084506</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959633546.5775477</v>
+        <v>39888951.14423815</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8071.327843328687</v>
+        <v>972910.725478709</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15004.82063808793</v>
+        <v>1757251.374549256</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21889.52681373136</v>
+        <v>2541592.023619805</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28926.53624830699</v>
+        <v>3327929.683964488</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>36109.18638983023</v>
+        <v>4113782.411310097</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>43201.3744417311</v>
+        <v>4899635.138655705</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>50309.76945319985</v>
+        <v>5685487.866001312</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>57421.13791759281</v>
+        <v>6471340.593346918</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>64371.76575738551</v>
+        <v>7257113.261686164</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>71474.30019879137</v>
+        <v>8042898.929633712</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>78721.93488101821</v>
+        <v>8828684.597581265</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>85568.9364616393</v>
+        <v>9612539.769477401</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>92437.13920975312</v>
+        <v>10396989.01000619</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>99598.73456578623</v>
+        <v>11156008.1964219</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>106724.8347747848</v>
+        <v>11919932.34776945</v>
       </c>
     </row>
   </sheetData>
@@ -27040,31 +27040,31 @@
         <v>49</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>362</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>49</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>361</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>49</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>256</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>88</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
